--- a/과제 일정.xlsx
+++ b/과제 일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wongi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wongi/Documents/GitHub/ios_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{3834B749-7CE5-6A4D-A8D4-1B2BB88EEAB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481561A7-19A9-C448-AA06-EEE565DA6C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="과제 일정" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -635,37 +635,43 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1409,7 +1415,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1421,7 +1427,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="35" customHeight="1">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
@@ -1432,16 +1438,16 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="23" customHeight="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="23" customHeight="1">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1467,104 +1473,108 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1">
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>43941</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>43941</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="13">
+        <v>43941</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>43942</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>43942</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="13">
+        <v>43941</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>43943</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>43943</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>43943</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>43943</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1">
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>43944</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>43944</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1">
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>43945</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>43945</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
